--- a/medicine/Psychotrope/Köstritzer_Schwarzbierbrauerei/Köstritzer_Schwarzbierbrauerei.xlsx
+++ b/medicine/Psychotrope/Köstritzer_Schwarzbierbrauerei/Köstritzer_Schwarzbierbrauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%B6stritzer_Schwarzbierbrauerei</t>
+          <t>Köstritzer_Schwarzbierbrauerei</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Köstritzer Schwarzbierbrauerei GmbH est une brasserie à Bad Köstritz.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%B6stritzer_Schwarzbierbrauerei</t>
+          <t>Köstritzer_Schwarzbierbrauerei</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1543, la brasserie est mentionnée pour la première fois dans le soi-disant registre des intérêts héréditaires sous le nom de "Köstritzer Erbschenke", ce qui en fait l'une des plus anciennes brasseries d'Allemagne. Les comtes de la maison Reuss reprennent la brasserie en 1696 et la rebaptisent « ritterschaftliche Gutsbrauerei ». Depuis 1806, la brasserie est autorisée à utiliser le titre de « Fürstliche Brauerei », puisque les chevaliers de la famille Reuss sont élevés au rang de princes. En 1811, 6 400 hectolitres de différents types de bière sont produits et vendus jusqu'à Berlin, Dresde, Magdebourg ou Francfort-sur-le-Main.
 Il est transmis par Johann Wolfgang von Goethe, qui vivait à Weimar, au moment où il s'intéresse principalement aux bières de différents types, y compris les brasseries de Köstritz et d'Oberweimar.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%B6stritzer_Schwarzbierbrauerei</t>
+          <t>Köstritzer_Schwarzbierbrauerei</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre la «Köstritzer Schwarzbier», la production comprend désormais également la « Köstritzer Edel Pils », la « Köstritzer Spezial Pils », la « Köstritzer Kellerbier » et les panachés « Köstritzer bibop » et « Köstritzer Edelpils Radler ». Suivant la tendance de la bière artisanale, la bière ambrée, la Witbier et la Red Lager sont récemment arrivées sur le marché. Les boissons mixtes à la bière "Kellerbier-Limette" et "Schwarzbier-Kirsche" sont produites depuis début 2019. Les bières sont désormais exportées dans plus de 50 pays.
-Köstritzer est le leader du marché en Allemagne dans le domaine des bières noires à fermentation basse avec une part de marché de 31%[1]. Le panaché Bibop, introduit en 2002, se classe deuxième parmi les marques de mélanges de bières au cola en Allemagne de l'Est avec un chiffre d'affaires de 41 712 hl.
+Köstritzer est le leader du marché en Allemagne dans le domaine des bières noires à fermentation basse avec une part de marché de 31%. Le panaché Bibop, introduit en 2002, se classe deuxième parmi les marques de mélanges de bières au cola en Allemagne de l'Est avec un chiffre d'affaires de 41 712 hl.
 </t>
         </is>
       </c>
